--- a/Discharge/RatingCurves/Stn4.xlsx
+++ b/Discharge/RatingCurves/Stn4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/RatingCurves/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{597AB82E-D25E-4DED-9D8A-A861A92EFB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72026667-BCF5-804D-8A58-C930EE7E1BD4}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="2940" windowWidth="24140" windowHeight="16900" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
+    <workbookView xWindow="7790" yWindow="290" windowWidth="11320" windowHeight="9730" xr2:uid="{DBDAB811-2C43-4D86-A775-8D8E9E65A044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2568,21 +2568,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169D4A9D-5791-420D-B1BF-381DB74DB40B}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44357</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44358</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44361</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44365</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44372</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44375</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>7.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44382</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44386</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>9.1592400000000008E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44389</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44390</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44391</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>1.031E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44393</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>3.823E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44396</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.24984000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44397</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>9.8879999999999996E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44400</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>9.1804999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44403</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1.6775000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44404</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1.4605999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44368</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44489</v>
       </c>
@@ -2932,12 +2932,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>44875</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44357</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44358</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1.6004999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44361</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>3.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44365</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44372</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44375</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>7.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44382</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44386</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>9.1592400000000008E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44389</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>2.734E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44390</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44391</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1.031E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44393</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>3.823E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44396</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>0.24984000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44397</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>9.8879999999999996E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44400</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>9.1804999999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44403</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>1.6775000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44404</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>1.4605999999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44368</v>
       </c>
@@ -3264,11 +3264,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44489</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44714</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>1.2014999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44719</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>2.8125000000000003E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44764</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>2.8740000000000005E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44769</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>3.1280000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D52" s="6">
         <v>0.05</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D53" s="6">
         <v>0.05</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D54" s="6">
         <v>0.05</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D55" s="6">
         <v>0.05</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D56" s="6">
         <v>0.05</v>
       </c>
